--- a/graph/datos.xlsx
+++ b/graph/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmauriciotrianareina/Documents/GitHub/Andres_Triana_HV/graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00117A5-40C1-3947-9A47-92A9BEDA1919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9242BF6-BC01-C940-8BBA-5AD07E35C753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15000" xr2:uid="{23A690C2-8779-CF42-B293-CBB969F6C9D2}"/>
   </bookViews>
@@ -124,7 +124,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>0.9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>0.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -532,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>0.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>0.7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>0.7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>0.7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>0.3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>0.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>0.7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -700,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>0.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>0.5</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/graph/datos.xlsx
+++ b/graph/datos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmauriciotrianareina/Documents/GitHub/Andres_Triana_HV/graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9242BF6-BC01-C940-8BBA-5AD07E35C753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC261F-D84D-4440-A597-5E173C68F566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15000" xr2:uid="{23A690C2-8779-CF42-B293-CBB969F6C9D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>Tipo</t>
   </si>
@@ -87,13 +87,25 @@
   </si>
   <si>
     <t>Programa/lenguaje/framework</t>
+  </si>
+  <si>
+    <t>Plotly - Python</t>
+  </si>
+  <si>
+    <t>Seaborn - Python</t>
+  </si>
+  <si>
+    <t>Matplolib - Python</t>
+  </si>
+  <si>
+    <t>Visualización de datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,19 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEE7527-DFB7-B941-88D8-C8D02D3F48AA}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -479,7 +492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -490,10 +503,11 @@
         <v>4</v>
       </c>
       <c r="D3" s="1">
+        <f>100-D2</f>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -507,7 +521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -518,10 +532,11 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
+        <f>100-D4</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -535,7 +550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -546,10 +561,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
+        <f>100-D6</f>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -563,7 +579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -574,10 +590,11 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
+        <f>100-D8</f>
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -591,7 +608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -602,10 +619,11 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
+        <f>100-D10</f>
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -619,7 +637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -630,10 +648,11 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
+        <f>100-D12</f>
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -644,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -658,10 +677,11 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <f>100-D14</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -675,7 +695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -686,10 +706,11 @@
         <v>4</v>
       </c>
       <c r="D17" s="1">
+        <f>100-D16</f>
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -703,7 +724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -714,7 +735,124 @@
         <v>4</v>
       </c>
       <c r="D19" s="1">
+        <f>100-D18</f>
         <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <f>100-D20</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <f>100-D22</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <f>100-D24</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <f>100-D26</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/graph/datos.xlsx
+++ b/graph/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmauriciotrianareina/Documents/GitHub/Andres_Triana_HV/graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC261F-D84D-4440-A597-5E173C68F566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F994B-EB6C-CA4E-94D6-4D4B80212C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15000" xr2:uid="{23A690C2-8779-CF42-B293-CBB969F6C9D2}"/>
   </bookViews>

--- a/graph/datos.xlsx
+++ b/graph/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmauriciotrianareina/Documents/GitHub/Andres_Triana_HV/graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785F994B-EB6C-CA4E-94D6-4D4B80212C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637292D1-CB1E-294D-BD02-78B03DCFCFE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15000" xr2:uid="{23A690C2-8779-CF42-B293-CBB969F6C9D2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
   <si>
     <t>Tipo</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Visualización de datos</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEE7527-DFB7-B941-88D8-C8D02D3F48AA}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,6 +858,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <f>100-D28</f>
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/graph/datos.xlsx
+++ b/graph/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmauriciotrianareina/Documents/GitHub/Andres_Triana_HV/graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637292D1-CB1E-294D-BD02-78B03DCFCFE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5FA733-9F41-2C44-AEAB-41A4766FD321}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15000" xr2:uid="{23A690C2-8779-CF42-B293-CBB969F6C9D2}"/>
   </bookViews>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -884,7 +884,7 @@
       </c>
       <c r="D29" s="1">
         <f>100-D28</f>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/graph/datos.xlsx
+++ b/graph/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmauriciotrianareina/Documents/GitHub/Andres_Triana_HV/graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5FA733-9F41-2C44-AEAB-41A4766FD321}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700283C-C22D-F445-9163-397968603359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15000" xr2:uid="{23A690C2-8779-CF42-B293-CBB969F6C9D2}"/>
   </bookViews>

--- a/graph/datos.xlsx
+++ b/graph/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmauriciotrianareina/Documents/GitHub/Andres_Triana_HV/graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E700283C-C22D-F445-9163-397968603359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A84B0-7029-464F-B10B-299CEFD1DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15000" xr2:uid="{23A690C2-8779-CF42-B293-CBB969F6C9D2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>Tipo</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Power Point</t>
   </si>
   <si>
-    <t>Desarrollo Web</t>
-  </si>
-  <si>
     <t>HTML</t>
   </si>
   <si>
@@ -89,19 +86,28 @@
     <t>Programa/lenguaje/framework</t>
   </si>
   <si>
-    <t>Plotly - Python</t>
-  </si>
-  <si>
-    <t>Seaborn - Python</t>
-  </si>
-  <si>
-    <t>Matplolib - Python</t>
-  </si>
-  <si>
-    <t>Visualización de datos</t>
-  </si>
-  <si>
     <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Desarrollo Web - Frontend</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Numpy</t>
+  </si>
+  <si>
+    <t>Seaborn/Matplotlib/Plotly</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Sklearn</t>
   </si>
 </sst>
 </file>
@@ -454,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEE7527-DFB7-B941-88D8-C8D02D3F48AA}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -472,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -570,97 +576,97 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1">
         <f>100-D8</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1">
         <f>100-D10</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1">
         <f>100-D12</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -671,10 +677,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -686,7 +692,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -695,12 +701,12 @@
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -710,15 +716,15 @@
       </c>
       <c r="D17" s="1">
         <f>100-D16</f>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -729,10 +735,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -744,65 +750,65 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1">
         <f>100-D20</f>
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1">
         <f>100-D22</f>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -811,12 +817,12 @@
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -826,41 +832,41 @@
       </c>
       <c r="D25" s="1">
         <f>100-D24</f>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
         <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1">
         <f>100-D26</f>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -869,12 +875,12 @@
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -884,7 +890,65 @@
       </c>
       <c r="D29" s="1">
         <f>100-D28</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
         <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <f>100-D30</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <f>100-D32</f>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/graph/datos.xlsx
+++ b/graph/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmauriciotrianareina/Documents/GitHub/Andres_Triana_HV/graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A84B0-7029-464F-B10B-299CEFD1DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E990753-B80D-834E-B32D-354445917CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15000" xr2:uid="{23A690C2-8779-CF42-B293-CBB969F6C9D2}"/>
   </bookViews>
